--- a/business/20200531-0603.xlsx
+++ b/business/20200531-0603.xlsx
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李 堆龙 2020年6月2日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>毅哥微信转第二次货款:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李 堆龙 2020年6月3日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>乌鸡桃仁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +369,14 @@
   <si>
     <t>勇哥微信转回寄包邮费:</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李 药王山 2020年6月2日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李 药王山 2020年6月3日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,15 +502,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -521,6 +512,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -840,13 +840,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="6">
         <v>43985</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="1" t="s">
@@ -873,18 +873,18 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -904,7 +904,7 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>43983</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>43983</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="46.8">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1">
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -1069,7 +1069,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1">
@@ -1124,7 +1124,7 @@
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>43983</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1">
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1">
@@ -1224,7 +1224,7 @@
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <v>43983</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1">
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1">
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="1">
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1">
@@ -1413,24 +1413,24 @@
         <v>14</v>
       </c>
       <c r="B30" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>150</v>
@@ -1444,13 +1444,13 @@
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="5">
         <v>43984</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1">
         <v>200</v>
@@ -1464,13 +1464,13 @@
       <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>57</v>
+      <c r="F32" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
         <v>12</v>
@@ -1485,12 +1485,12 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
         <v>36</v>
@@ -1505,12 +1505,12 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1">
         <v>55</v>
@@ -1524,12 +1524,12 @@
       <c r="E35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>43984</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.6">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1">
@@ -1545,11 +1545,11 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.6">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="1">
@@ -1565,11 +1565,11 @@
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.6">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="1">
@@ -1585,12 +1585,12 @@
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.6">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1">
         <v>178</v>
@@ -1605,11 +1605,11 @@
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="1">
@@ -1625,12 +1625,12 @@
         <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1">
         <v>100</v>
@@ -1645,12 +1645,12 @@
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1">
         <v>100</v>
@@ -1664,8 +1664,8 @@
       <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>74</v>
+      <c r="F42" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6">
@@ -1673,24 +1673,24 @@
         <v>14</v>
       </c>
       <c r="B43" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.6">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1">
         <v>75</v>
@@ -1705,12 +1705,12 @@
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.6">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1">
         <v>70</v>
@@ -1725,12 +1725,12 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6">
-      <c r="A46" s="5" t="s">
-        <v>82</v>
+      <c r="A46" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B46" s="1">
         <v>55</v>
@@ -1744,13 +1744,13 @@
       <c r="E46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="5">
         <v>43985</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6">
-      <c r="A47" s="6" t="s">
-        <v>84</v>
+      <c r="A47" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B47" s="1">
         <v>269</v>
@@ -1764,13 +1764,13 @@
       <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="5">
         <v>43985</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>37</v>
@@ -1784,7 +1784,7 @@
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="5">
         <v>43985</v>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2">
-      <c r="A50" s="6" t="s">
-        <v>87</v>
+      <c r="A50" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="1">
         <v>34</v>
@@ -1825,12 +1825,12 @@
         <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.2">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="1">
         <v>18</v>
@@ -1845,12 +1845,12 @@
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="31.2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="1">
         <v>95</v>
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6">
@@ -1884,12 +1884,12 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <f>SUM(B2:B52)</f>
-        <v>5769.55</v>
+        <v>5778.55</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
         <f>SUM(D2:D52)</f>
-        <v>5759.55</v>
+        <v>5768.55</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1903,14 +1903,14 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="15.6">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1">
         <v>1004.41</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="8">
+      <c r="F57" s="5">
         <v>43983</v>
       </c>
     </row>
@@ -1938,13 +1938,13 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="8">
+      <c r="F58" s="5">
         <v>43983</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="31.2">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>1000</v>
@@ -1952,13 +1952,13 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="8">
+      <c r="F59" s="5">
         <v>43983</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="31.2">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
         <v>2000</v>
@@ -1966,13 +1966,13 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="8">
+      <c r="F60" s="5">
         <v>43984</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="31.2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>-1000</v>
@@ -1980,13 +1980,13 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="8" t="s">
-        <v>70</v>
+      <c r="F61" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="31.2">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1">
         <v>300</v>
@@ -1994,13 +1994,13 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="8" t="s">
-        <v>75</v>
+      <c r="F62" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="31.2">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1">
         <v>1000</v>
@@ -2008,13 +2008,13 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="8" t="s">
-        <v>77</v>
+      <c r="F63" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="31.2">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" s="1">
         <v>95</v>
@@ -2022,7 +2022,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="8">
+      <c r="F64" s="5">
         <v>43985</v>
       </c>
     </row>
@@ -2049,11 +2049,11 @@
     </row>
     <row r="67" spans="1:6" ht="15.6">
       <c r="A67" s="1"/>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="1"/>
@@ -2065,15 +2065,15 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <f>B66-B54</f>
-        <v>679.85999999999967</v>
+        <v>670.85999999999967</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1">
         <f>B66-D54</f>
-        <v>689.85999999999967</v>
+        <v>680.85999999999967</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="7">
+      <c r="F68" s="4">
         <v>43985</v>
       </c>
     </row>
